--- a/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de minutos que tarda en desplazarse para ir a trabajar</t>
+          <t>Número medio de minutos que utilizan en todos sus desplazamientos para ir a trabajar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,45</t>
+          <t>9,3; 16,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,88</t>
+          <t>7,49; 13,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 15,27</t>
+          <t>8,63; 15,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 19,69</t>
+          <t>11,81; 19,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,95</t>
+          <t>7,64; 13,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 19,09</t>
+          <t>10,08; 18,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 20,4</t>
+          <t>10,17; 20,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 21,83</t>
+          <t>13,97; 21,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 14,53</t>
+          <t>9,16; 14,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,08</t>
+          <t>9,39; 14,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,69</t>
+          <t>10,33; 16,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 19,4</t>
+          <t>14,0; 19,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 13,07</t>
+          <t>7,05; 13,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,57</t>
+          <t>5,45; 10,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 21,01</t>
+          <t>10,13; 22,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 24,68</t>
+          <t>15,6; 25,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,82</t>
+          <t>5,56; 10,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,28</t>
+          <t>5,1; 11,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 17,25</t>
+          <t>10,24; 17,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 20,75</t>
+          <t>13,55; 21,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,18</t>
+          <t>7,01; 10,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,92</t>
+          <t>5,68; 9,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,24</t>
+          <t>11,23; 18,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,35</t>
+          <t>15,35; 21,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,64</t>
+          <t>8,92; 15,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,42</t>
+          <t>6,09; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,73</t>
+          <t>5,17; 10,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 17,96</t>
+          <t>1,96; 17,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,56</t>
+          <t>3,22; 10,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,08</t>
+          <t>4,25; 9,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,17</t>
+          <t>3,77; 11,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 12,09</t>
+          <t>4,81; 12,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,12</t>
+          <t>8,45; 14,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,28</t>
+          <t>6,1; 10,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,0</t>
+          <t>5,43; 10,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 14,96</t>
+          <t>1,94; 14,79</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,75</t>
+          <t>6,57; 12,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,58</t>
+          <t>7,19; 12,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,26</t>
+          <t>6,92; 11,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 23,9</t>
+          <t>15,85; 23,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,53</t>
+          <t>4,17; 7,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,19</t>
+          <t>4,78; 8,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,55</t>
+          <t>5,76; 9,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 18,49</t>
+          <t>11,68; 18,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,04</t>
+          <t>6,18; 9,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,78</t>
+          <t>6,51; 9,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,89</t>
+          <t>6,88; 9,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 20,0</t>
+          <t>15,02; 20,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,67</t>
+          <t>6,23; 11,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 14,88</t>
+          <t>5,5; 16,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,33</t>
+          <t>5,73; 12,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,77</t>
+          <t>14,27; 23,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 16,58</t>
+          <t>9,35; 16,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,45</t>
+          <t>6,18; 12,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 13,71</t>
+          <t>6,96; 14,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 22,68</t>
+          <t>7,23; 21,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,31</t>
+          <t>8,82; 13,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,07</t>
+          <t>6,53; 12,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,98</t>
+          <t>7,16; 11,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,34; 21,18</t>
+          <t>10,85; 21,15</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,65</t>
+          <t>8,8; 11,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,4</t>
+          <t>7,65; 10,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,74</t>
+          <t>8,55; 11,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 18,7</t>
+          <t>8,29; 18,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,86</t>
+          <t>7,39; 9,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,01</t>
+          <t>7,25; 9,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,19</t>
+          <t>8,8; 12,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,73</t>
+          <t>12,48; 17,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,73</t>
+          <t>8,57; 10,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,76</t>
+          <t>7,72; 9,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 11,44</t>
+          <t>9,18; 11,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 17,31</t>
+          <t>11,38; 17,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
